--- a/data_execl/base_data/GuideConfig.xlsx
+++ b/data_execl/base_data/GuideConfig.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X1\Trunk\data_execl\base_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{525E9BEE-F8A5-470C-982F-2C9EB0D655CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{FDB2D88D-5D98-47F2-949D-031857097AC7}"/>
+    <workbookView windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="GuideConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -398,196 +389,196 @@
     <t>15#301001|219#30101</t>
   </si>
   <si>
+    <t>MainPanel/MiddleGrid/tab5</t>
+  </si>
+  <si>
+    <t>EightDayGiftPanel/panel/show/itemPre_1/getBtn</t>
+  </si>
+  <si>
+    <t>EightDayGiftPanel/BtnBack</t>
+  </si>
+  <si>
+    <t>-250#0#0</t>
+  </si>
+  <si>
+    <t>RoleInfoPanel/rolePanel/layout/roleInfoLayout/upClassBtn</t>
+  </si>
+  <si>
+    <t>0#40#0</t>
+  </si>
+  <si>
+    <t>RoleRankUpConfirmPopup/BG/RankUpBtn</t>
+  </si>
+  <si>
+    <t>74#201500#false</t>
+  </si>
+  <si>
+    <t>15#30202|219#30201</t>
+  </si>
+  <si>
+    <t>MainPanel/UpView/RightUp/cnyGrid/cny1/btn</t>
+  </si>
+  <si>
+    <t>QuickPurchasePanel/Panel/bg/coinPart/Panel/Get1/Btn</t>
+  </si>
+  <si>
+    <t>15#30303|219#30301</t>
+  </si>
+  <si>
+    <t>15#304021|219#30401</t>
+  </si>
+  <si>
+    <t>74#201300#false</t>
+  </si>
+  <si>
+    <t>MainPanel/BtView/Down/btnTeQuan</t>
+  </si>
+  <si>
+    <t>LogisticsMainPanel/middle/page1/bg</t>
+  </si>
+  <si>
+    <t>SupportPanel/activatePart/activateTask/taskList/itemPro1/dealBtn</t>
+  </si>
+  <si>
+    <t>15#30502|219#30501</t>
+  </si>
+  <si>
+    <t>FormationPanelV2/btnGuard</t>
+  </si>
+  <si>
+    <t>SupportSelectPanel/Scroll/ScrollCycleView/grid/item1/Btn</t>
+  </si>
+  <si>
+    <t>FormationPanelV2/btnBack</t>
+  </si>
+  <si>
+    <t>15#30602|219#30601</t>
+  </si>
+  <si>
+    <t>-150#-192#0</t>
+  </si>
+  <si>
+    <t>RecruitPanel/UI/choosePanel/box/tab(Clone)</t>
+  </si>
+  <si>
+    <t>31#-125#0</t>
+  </si>
+  <si>
+    <t>25#30608</t>
+  </si>
+  <si>
+    <t>74#201200#false</t>
+  </si>
+  <si>
+    <t>15#30702|219#30701</t>
+  </si>
+  <si>
+    <t>15#30801|219#30802</t>
+  </si>
+  <si>
+    <t>FightPointPassMainPanel/Bg/RightUpVertical/btnFindTreasure</t>
+  </si>
+  <si>
+    <t>FindTreasureMainPanel/rect/rect1/grid/rewardPre1/jumpButton</t>
+  </si>
+  <si>
+    <t>FindTreasureDispatchPanel/btnAutoSure</t>
+  </si>
+  <si>
+    <t>FindTreasureDispatchPanel/btnSure</t>
+  </si>
+  <si>
+    <t>15#309021|219#30901</t>
+  </si>
+  <si>
+    <t>74#201400#false</t>
+  </si>
+  <si>
+    <t>25#180#0</t>
+  </si>
+  <si>
+    <t>MainPanel/scene/layer1/btnJingjichang</t>
+  </si>
+  <si>
+    <t>ArenaMainPanel/content/ArenaMainPanel_ArenaView/challengebox/enemy_1/challenge</t>
+  </si>
+  <si>
+    <t>15#40102|219#40101</t>
+  </si>
+  <si>
+    <t>MissionDailyPanel/Contents/MissionDailyPanel_Achievement/receiveAllBtn</t>
+  </si>
+  <si>
+    <t>MissionDailyPanel/closeBtn</t>
+  </si>
+  <si>
+    <t>15#40202|219#40201</t>
+  </si>
+  <si>
+    <t>130#100#0</t>
+  </si>
+  <si>
+    <t>RecruitPanel/UI/Panel/Content/Pre3/Btn10</t>
+  </si>
+  <si>
+    <t>15#40302|219#40301</t>
+  </si>
+  <si>
+    <t>FightPointPassMainPanel/Bg/getBoxReward</t>
+  </si>
+  <si>
+    <t>15#40402|219#40401</t>
+  </si>
+  <si>
+    <t>MainPanel/BtView/Down/btnGongHui</t>
+  </si>
+  <si>
+    <t>15#40502|219#40501</t>
+  </si>
+  <si>
+    <t>74#202000#false</t>
+  </si>
+  <si>
+    <t>0#-100#0</t>
+  </si>
+  <si>
+    <t>MainPanel/scene/layer1/btnTower</t>
+  </si>
+  <si>
+    <t>15#40602|219#40601</t>
+  </si>
+  <si>
+    <t>MainPanel/scene/layer1/btnElementDrawCard</t>
+  </si>
+  <si>
+    <t>15#40702|219#40701</t>
+  </si>
+  <si>
+    <t>MainPanel/scene/layer1/btnEquipInformationCenter</t>
+  </si>
+  <si>
+    <t>15#40802|219#40801</t>
+  </si>
+  <si>
+    <t>FightPointPassMainPanel/Bg/btnGroup/btnDailyMission</t>
+  </si>
+  <si>
+    <t>MainPanel/RightDown/btnRoot/btnDailyMission</t>
+  </si>
+  <si>
+    <t>MissionDailyPanel/Contents/MissionDailyPanel_Daily/rect/ScrollCycleView/grid/item1/receiveBtn</t>
+  </si>
+  <si>
+    <t>15#40902|219#40901</t>
+  </si>
+  <si>
+    <t>EightDayGiftPanel/panel/show/itemPre_1</t>
+  </si>
+  <si>
+    <t>15#41002|219#41001</t>
+  </si>
+  <si>
     <t>-70#0#0</t>
-  </si>
-  <si>
-    <t>MainPanel/MiddleGrid/tab5</t>
-  </si>
-  <si>
-    <t>EightDayGiftPanel/panel/show/itemPre_1/getBtn</t>
-  </si>
-  <si>
-    <t>EightDayGiftPanel/BtnBack</t>
-  </si>
-  <si>
-    <t>-250#0#0</t>
-  </si>
-  <si>
-    <t>RoleInfoPanel/rolePanel/layout/roleInfoLayout/upClassBtn</t>
-  </si>
-  <si>
-    <t>0#40#0</t>
-  </si>
-  <si>
-    <t>RoleRankUpConfirmPopup/BG/RankUpBtn</t>
-  </si>
-  <si>
-    <t>74#201500#false</t>
-  </si>
-  <si>
-    <t>15#30202|219#30201</t>
-  </si>
-  <si>
-    <t>MainPanel/UpView/RightUp/cnyGrid/cny1/btn</t>
-  </si>
-  <si>
-    <t>QuickPurchasePanel/Panel/bg/coinPart/Panel/Get1/Btn</t>
-  </si>
-  <si>
-    <t>15#30303|219#30301</t>
-  </si>
-  <si>
-    <t>15#304021|219#30401</t>
-  </si>
-  <si>
-    <t>74#201300#false</t>
-  </si>
-  <si>
-    <t>MainPanel/BtView/Down/btnTeQuan</t>
-  </si>
-  <si>
-    <t>LogisticsMainPanel/middle/page1/bg</t>
-  </si>
-  <si>
-    <t>SupportPanel/activatePart/activateTask/taskList/itemPro1/dealBtn</t>
-  </si>
-  <si>
-    <t>15#30502|219#30501</t>
-  </si>
-  <si>
-    <t>FormationPanelV2/btnGuard</t>
-  </si>
-  <si>
-    <t>SupportSelectPanel/Scroll/ScrollCycleView/grid/item1/Btn</t>
-  </si>
-  <si>
-    <t>FormationPanelV2/btnBack</t>
-  </si>
-  <si>
-    <t>15#30602|219#30601</t>
-  </si>
-  <si>
-    <t>-150#-192#0</t>
-  </si>
-  <si>
-    <t>RecruitPanel/UI/choosePanel/box/tab(Clone)</t>
-  </si>
-  <si>
-    <t>31#-125#0</t>
-  </si>
-  <si>
-    <t>25#30608</t>
-  </si>
-  <si>
-    <t>74#201200#false</t>
-  </si>
-  <si>
-    <t>15#30702|219#30701</t>
-  </si>
-  <si>
-    <t>15#30801|219#30802</t>
-  </si>
-  <si>
-    <t>FightPointPassMainPanel/Bg/RightUpVertical/btnFindTreasure</t>
-  </si>
-  <si>
-    <t>FindTreasureMainPanel/rect/rect1/grid/rewardPre1/jumpButton</t>
-  </si>
-  <si>
-    <t>FindTreasureDispatchPanel/btnAutoSure</t>
-  </si>
-  <si>
-    <t>FindTreasureDispatchPanel/btnSure</t>
-  </si>
-  <si>
-    <t>15#309021|219#30901</t>
-  </si>
-  <si>
-    <t>74#201400#false</t>
-  </si>
-  <si>
-    <t>25#180#0</t>
-  </si>
-  <si>
-    <t>MainPanel/scene/layer1/btnJingjichang</t>
-  </si>
-  <si>
-    <t>ArenaMainPanel/content/ArenaMainPanel_ArenaView/challengebox/enemy_1/challenge</t>
-  </si>
-  <si>
-    <t>15#40102|219#40101</t>
-  </si>
-  <si>
-    <t>MissionDailyPanel/Contents/MissionDailyPanel_Achievement/receiveAllBtn</t>
-  </si>
-  <si>
-    <t>MissionDailyPanel/closeBtn</t>
-  </si>
-  <si>
-    <t>15#40202|219#40201</t>
-  </si>
-  <si>
-    <t>130#100#0</t>
-  </si>
-  <si>
-    <t>RecruitPanel/UI/Panel/Content/Pre3/Btn10</t>
-  </si>
-  <si>
-    <t>15#40302|219#40301</t>
-  </si>
-  <si>
-    <t>FightPointPassMainPanel/Bg/getBoxReward</t>
-  </si>
-  <si>
-    <t>15#40402|219#40401</t>
-  </si>
-  <si>
-    <t>MainPanel/BtView/Down/btnGongHui</t>
-  </si>
-  <si>
-    <t>15#40502|219#40501</t>
-  </si>
-  <si>
-    <t>74#202000#false</t>
-  </si>
-  <si>
-    <t>0#-100#0</t>
-  </si>
-  <si>
-    <t>MainPanel/scene/layer1/btnTower</t>
-  </si>
-  <si>
-    <t>15#40602|219#40601</t>
-  </si>
-  <si>
-    <t>MainPanel/scene/layer1/btnElementDrawCard</t>
-  </si>
-  <si>
-    <t>15#40702|219#40701</t>
-  </si>
-  <si>
-    <t>MainPanel/scene/layer1/btnEquipInformationCenter</t>
-  </si>
-  <si>
-    <t>15#40802|219#40801</t>
-  </si>
-  <si>
-    <t>FightPointPassMainPanel/Bg/btnGroup/btnDailyMission</t>
-  </si>
-  <si>
-    <t>MainPanel/RightDown/btnRoot/btnDailyMission</t>
-  </si>
-  <si>
-    <t>MissionDailyPanel/Contents/MissionDailyPanel_Daily/rect/ScrollCycleView/grid/item1/receiveBtn</t>
-  </si>
-  <si>
-    <t>15#40902|219#40901</t>
-  </si>
-  <si>
-    <t>EightDayGiftPanel/panel/show/itemPre_1</t>
-  </si>
-  <si>
-    <t>15#41002|219#41001</t>
   </si>
   <si>
     <t>MainPanel/RightUpVertical/tab4</t>
@@ -971,33 +962,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1005,9 +1331,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,17 +1584,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1075,7 +1687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1108,26 +1720,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1160,23 +1755,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1318,24 +1896,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2801C7-F604-43F9-9C5B-8FB16A16E7B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="N613" sqref="N613"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1458,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +2074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1522,17 +2097,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1555,7 +2130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>102</v>
       </c>
@@ -1572,7 +2147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>103</v>
       </c>
@@ -1595,7 +2170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>104</v>
       </c>
@@ -1621,7 +2196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>10511</v>
       </c>
@@ -1647,7 +2222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>10512</v>
       </c>
@@ -1670,7 +2245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>105</v>
       </c>
@@ -1690,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>1051</v>
       </c>
@@ -1713,7 +2288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>106</v>
       </c>
@@ -1736,7 +2311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>201</v>
       </c>
@@ -1768,7 +2343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>202</v>
       </c>
@@ -1800,7 +2375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>2021</v>
       </c>
@@ -1823,7 +2398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>205</v>
       </c>
@@ -1840,7 +2415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>203</v>
       </c>
@@ -1860,7 +2435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>204</v>
       </c>
@@ -1877,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23">
         <v>301</v>
       </c>
@@ -1906,7 +2481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24">
         <v>302</v>
       </c>
@@ -1929,7 +2504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>30211</v>
       </c>
@@ -1952,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26">
         <v>303</v>
       </c>
@@ -1975,7 +2550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27">
         <v>304</v>
       </c>
@@ -2001,7 +2576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>305</v>
       </c>
@@ -2018,7 +2593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29">
         <v>306</v>
       </c>
@@ -2041,7 +2616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30">
         <v>3061</v>
       </c>
@@ -2058,7 +2633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31">
         <v>307</v>
       </c>
@@ -2087,7 +2662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32">
         <v>3001</v>
       </c>
@@ -2107,7 +2682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>3002</v>
       </c>
@@ -2124,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="B34">
         <v>3071</v>
       </c>
@@ -2156,7 +2731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="B35">
         <v>308</v>
       </c>
@@ -2182,7 +2757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>309</v>
       </c>
@@ -2199,7 +2774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14">
       <c r="B37">
         <v>310</v>
       </c>
@@ -2216,7 +2791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="B38">
         <v>4000</v>
       </c>
@@ -2248,7 +2823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="B39">
         <v>4001</v>
       </c>
@@ -2268,7 +2843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>4002</v>
       </c>
@@ -2285,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14">
       <c r="B41">
         <v>401</v>
       </c>
@@ -2308,7 +2883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="B42">
         <v>402</v>
       </c>
@@ -2337,7 +2912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14">
       <c r="B43">
         <v>403</v>
       </c>
@@ -2369,7 +2944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>404</v>
       </c>
@@ -2386,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="B45">
         <v>405</v>
       </c>
@@ -2403,7 +2978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14">
       <c r="B46">
         <v>40611</v>
       </c>
@@ -2432,7 +3007,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47">
         <v>4003</v>
       </c>
@@ -2452,7 +3027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48">
         <v>4004</v>
       </c>
@@ -2469,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49">
         <v>406</v>
       </c>
@@ -2492,7 +3067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50">
         <v>407</v>
       </c>
@@ -2524,7 +3099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51">
         <v>408</v>
       </c>
@@ -2556,7 +3131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52">
         <v>409</v>
       </c>
@@ -2582,7 +3157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>410</v>
       </c>
@@ -2599,7 +3174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54">
         <v>501</v>
       </c>
@@ -2628,7 +3203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55">
         <v>5011</v>
       </c>
@@ -2651,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56">
         <v>502</v>
       </c>
@@ -2674,7 +3249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57">
         <v>503</v>
       </c>
@@ -2697,7 +3272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58">
         <v>504</v>
       </c>
@@ -2726,7 +3301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59">
         <v>5041</v>
       </c>
@@ -2746,7 +3321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60">
         <v>5042</v>
       </c>
@@ -2763,7 +3338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61">
         <v>505</v>
       </c>
@@ -2792,7 +3367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62">
         <v>506</v>
       </c>
@@ -2815,7 +3390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11">
       <c r="B63">
         <v>507</v>
       </c>
@@ -2832,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64">
         <v>514</v>
       </c>
@@ -2855,7 +3430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65">
         <v>508</v>
       </c>
@@ -2878,7 +3453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66">
         <v>509</v>
       </c>
@@ -2898,7 +3473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67">
         <v>5091</v>
       </c>
@@ -2921,7 +3496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68">
         <v>516</v>
       </c>
@@ -2944,7 +3519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9">
       <c r="B69">
         <v>5161</v>
       </c>
@@ -2964,7 +3539,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70">
         <v>510</v>
       </c>
@@ -2984,7 +3559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71">
         <v>511</v>
       </c>
@@ -3013,7 +3588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72">
         <v>512</v>
       </c>
@@ -3036,7 +3611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73">
         <v>601</v>
       </c>
@@ -3053,7 +3628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74">
         <v>602</v>
       </c>
@@ -3082,7 +3657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75">
         <v>20100</v>
       </c>
@@ -3099,7 +3674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76">
         <v>20101</v>
       </c>
@@ -3122,7 +3697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77">
         <v>20102</v>
       </c>
@@ -3151,7 +3726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78">
         <v>20103</v>
       </c>
@@ -3174,7 +3749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79">
         <v>20104</v>
       </c>
@@ -3197,7 +3772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80">
         <v>20105</v>
       </c>
@@ -3220,7 +3795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81">
         <v>20106</v>
       </c>
@@ -3243,7 +3818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82">
         <v>2010711</v>
       </c>
@@ -3272,7 +3847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83">
         <v>2010712</v>
       </c>
@@ -3301,7 +3876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84">
         <v>20107</v>
       </c>
@@ -3324,7 +3899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85">
         <v>2010811</v>
       </c>
@@ -3353,7 +3928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86">
         <v>20108</v>
       </c>
@@ -3373,7 +3948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87">
         <v>20200</v>
       </c>
@@ -3390,7 +3965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88">
         <v>20201</v>
       </c>
@@ -3413,7 +3988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89">
         <v>20202</v>
       </c>
@@ -3442,7 +4017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90">
         <v>20203</v>
       </c>
@@ -3465,7 +4040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91">
         <v>20204</v>
       </c>
@@ -3488,7 +4063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92">
         <v>2020511</v>
       </c>
@@ -3511,7 +4086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93">
         <v>20205</v>
       </c>
@@ -3534,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11">
       <c r="B94">
         <v>20206</v>
       </c>
@@ -3551,7 +4126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95">
         <v>20207</v>
       </c>
@@ -3568,7 +4143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96">
         <v>20208</v>
       </c>
@@ -3591,7 +4166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97">
         <v>20209</v>
       </c>
@@ -3611,7 +4186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98">
         <v>20300</v>
       </c>
@@ -3628,7 +4203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99">
         <v>20301</v>
       </c>
@@ -3651,7 +4226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100">
         <v>20302</v>
       </c>
@@ -3680,7 +4255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101">
         <v>20303</v>
       </c>
@@ -3703,7 +4278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102">
         <v>20304</v>
       </c>
@@ -3726,7 +4301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103">
         <v>2030411</v>
       </c>
@@ -3755,7 +4330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104">
         <v>20305</v>
       </c>
@@ -3778,7 +4353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105">
         <v>2030511</v>
       </c>
@@ -3807,7 +4382,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106">
         <v>20306</v>
       </c>
@@ -3830,7 +4405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107">
         <v>20307</v>
       </c>
@@ -3850,7 +4425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108">
         <v>20400</v>
       </c>
@@ -3867,7 +4442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109">
         <v>20401</v>
       </c>
@@ -3890,7 +4465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110">
         <v>20402</v>
       </c>
@@ -3919,7 +4494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111">
         <v>20403</v>
       </c>
@@ -3945,7 +4520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112">
         <v>20404</v>
       </c>
@@ -3968,7 +4543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113">
         <v>20405</v>
       </c>
@@ -3991,7 +4566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11">
       <c r="B114">
         <v>20406</v>
       </c>
@@ -4008,7 +4583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115">
         <v>20407</v>
       </c>
@@ -4025,7 +4600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116">
         <v>20408</v>
       </c>
@@ -4054,7 +4629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117">
         <v>20409</v>
       </c>
@@ -4074,7 +4649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118">
         <v>20500</v>
       </c>
@@ -4091,7 +4666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119">
         <v>205011</v>
       </c>
@@ -4111,7 +4686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11">
       <c r="B120">
         <v>205012</v>
       </c>
@@ -4128,7 +4703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121">
         <v>205021</v>
       </c>
@@ -4148,7 +4723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11">
       <c r="B122">
         <v>205022</v>
       </c>
@@ -4165,7 +4740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123">
         <v>205013</v>
       </c>
@@ -4194,7 +4769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124">
         <v>205014</v>
       </c>
@@ -4223,7 +4798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125">
         <v>205015</v>
       </c>
@@ -4243,7 +4818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11">
       <c r="B126">
         <v>205016</v>
       </c>
@@ -4260,7 +4835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127">
         <v>205017</v>
       </c>
@@ -4283,7 +4858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9">
       <c r="B128">
         <v>20501</v>
       </c>
@@ -4300,7 +4875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129">
         <v>20502</v>
       </c>
@@ -4323,7 +4898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130">
         <v>20503</v>
       </c>
@@ -4352,7 +4927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131">
         <v>20504</v>
       </c>
@@ -4381,7 +4956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132">
         <v>20505</v>
       </c>
@@ -4404,7 +4979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133">
         <v>205062</v>
       </c>
@@ -4427,7 +5002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9">
       <c r="B134">
         <v>205061</v>
       </c>
@@ -4447,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135">
         <v>205063</v>
       </c>
@@ -4470,7 +5045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:11">
       <c r="B136">
         <v>205051</v>
       </c>
@@ -4487,7 +5062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137">
         <v>20506</v>
       </c>
@@ -4504,7 +5079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138">
         <v>20507</v>
       </c>
@@ -4527,7 +5102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139">
         <v>20508</v>
       </c>
@@ -4550,7 +5125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140">
         <v>20509</v>
       </c>
@@ -4570,7 +5145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141">
         <v>20600</v>
       </c>
@@ -4587,7 +5162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142">
         <v>20601</v>
       </c>
@@ -4610,7 +5185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143">
         <v>20602</v>
       </c>
@@ -4639,7 +5214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144">
         <v>20603</v>
       </c>
@@ -4662,7 +5237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145">
         <v>206041</v>
       </c>
@@ -4682,7 +5257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:11">
       <c r="B146">
         <v>206042</v>
       </c>
@@ -4699,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147">
         <v>20604</v>
       </c>
@@ -4722,7 +5297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9">
       <c r="B148">
         <v>20605</v>
       </c>
@@ -4736,7 +5311,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149">
         <v>20606</v>
       </c>
@@ -4759,7 +5334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150">
         <v>20607</v>
       </c>
@@ -4782,7 +5357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151">
         <v>20608</v>
       </c>
@@ -4805,7 +5380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152">
         <v>20609</v>
       </c>
@@ -4828,7 +5403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14">
       <c r="B153">
         <v>20610</v>
       </c>
@@ -4851,7 +5426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14">
       <c r="B154">
         <v>20611</v>
       </c>
@@ -4871,7 +5446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14">
       <c r="B155">
         <v>20700</v>
       </c>
@@ -4888,7 +5463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14">
       <c r="B156">
         <v>20701</v>
       </c>
@@ -4911,7 +5486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14">
       <c r="B157">
         <v>20702</v>
       </c>
@@ -4940,7 +5515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14">
       <c r="B158">
         <v>20703</v>
       </c>
@@ -4963,7 +5538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14">
       <c r="B159">
         <v>20704</v>
       </c>
@@ -4986,7 +5561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14">
       <c r="B160">
         <v>20705</v>
       </c>
@@ -5009,7 +5584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11">
       <c r="B161">
         <v>20706</v>
       </c>
@@ -5026,7 +5601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14">
       <c r="B162">
         <v>20707</v>
       </c>
@@ -5043,7 +5618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14">
       <c r="B163">
         <v>20708</v>
       </c>
@@ -5072,7 +5647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14">
       <c r="B164">
         <v>20709</v>
       </c>
@@ -5095,7 +5670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11">
       <c r="B165">
         <v>20710</v>
       </c>
@@ -5112,7 +5687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14">
       <c r="B166">
         <v>20711</v>
       </c>
@@ -5129,7 +5704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14">
       <c r="B167">
         <v>20712</v>
       </c>
@@ -5158,7 +5733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14">
       <c r="B168">
         <v>20713</v>
       </c>
@@ -5178,7 +5753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14">
       <c r="B169">
         <v>20800</v>
       </c>
@@ -5195,7 +5770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14">
       <c r="B170">
         <v>20801</v>
       </c>
@@ -5218,7 +5793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:9">
       <c r="B171">
         <v>20802</v>
       </c>
@@ -5238,7 +5813,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14">
       <c r="B172">
         <v>20803</v>
       </c>
@@ -5261,7 +5836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14">
       <c r="B173">
         <v>20804</v>
       </c>
@@ -5284,7 +5859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11">
       <c r="B174">
         <v>20805</v>
       </c>
@@ -5301,7 +5876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14">
       <c r="B175">
         <v>2080511</v>
       </c>
@@ -5330,7 +5905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14">
       <c r="B176">
         <v>2080512</v>
       </c>
@@ -5353,7 +5928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14">
       <c r="B177">
         <v>2080513</v>
       </c>
@@ -5376,7 +5951,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14">
       <c r="B178">
         <v>2080514</v>
       </c>
@@ -5399,7 +5974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14">
       <c r="B179">
         <v>2080515</v>
       </c>
@@ -5422,7 +5997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14">
       <c r="B180">
         <v>2080516</v>
       </c>
@@ -5445,7 +6020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14">
       <c r="B181">
         <v>2080517</v>
       </c>
@@ -5474,7 +6049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14">
       <c r="B182">
         <v>20806</v>
       </c>
@@ -5491,7 +6066,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14">
       <c r="B183">
         <v>20807</v>
       </c>
@@ -5511,7 +6086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14">
       <c r="B184">
         <v>20809</v>
       </c>
@@ -5531,7 +6106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14">
       <c r="B185">
         <v>20900</v>
       </c>
@@ -5548,7 +6123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14">
       <c r="B186">
         <v>20901</v>
       </c>
@@ -5571,7 +6146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14">
       <c r="B187">
         <v>20902</v>
       </c>
@@ -5600,7 +6175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14">
       <c r="B188">
         <v>20903</v>
       </c>
@@ -5623,7 +6198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14">
       <c r="B189">
         <v>20904</v>
       </c>
@@ -5646,7 +6221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14">
       <c r="B190">
         <v>20905</v>
       </c>
@@ -5669,7 +6244,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:9">
       <c r="B191">
         <v>209051</v>
       </c>
@@ -5689,7 +6264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14">
       <c r="B192">
         <v>209052</v>
       </c>
@@ -5718,7 +6293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:9">
       <c r="B193">
         <v>209053</v>
       </c>
@@ -5738,7 +6313,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14">
       <c r="B194">
         <v>209054</v>
       </c>
@@ -5761,7 +6336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14">
       <c r="B195">
         <v>20906</v>
       </c>
@@ -5784,7 +6359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:11">
       <c r="B196">
         <v>20907</v>
       </c>
@@ -5801,7 +6376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14">
       <c r="B197">
         <v>20908</v>
       </c>
@@ -5818,7 +6393,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14">
       <c r="B198">
         <v>20909</v>
       </c>
@@ -5847,7 +6422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14">
       <c r="B199">
         <v>20910</v>
       </c>
@@ -5870,7 +6445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:11">
       <c r="B200">
         <v>20911</v>
       </c>
@@ -5887,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14">
       <c r="B201">
         <v>20912</v>
       </c>
@@ -5904,7 +6479,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14">
       <c r="B202">
         <v>20913</v>
       </c>
@@ -5927,7 +6502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14">
       <c r="B203">
         <v>20914</v>
       </c>
@@ -5947,7 +6522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14">
       <c r="B204">
         <v>30100</v>
       </c>
@@ -5964,7 +6539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14">
       <c r="B205">
         <v>30101</v>
       </c>
@@ -5987,7 +6562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9">
       <c r="B206">
         <v>301001</v>
       </c>
@@ -6007,7 +6582,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14">
       <c r="B207">
         <v>301002</v>
       </c>
@@ -6018,19 +6593,19 @@
         <v>2</v>
       </c>
       <c r="H207" t="s">
+        <v>36</v>
+      </c>
+      <c r="I207">
+        <v>0.3</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207" t="s">
         <v>120</v>
       </c>
-      <c r="I207">
-        <v>0.3</v>
-      </c>
-      <c r="M207">
-        <v>2</v>
-      </c>
-      <c r="N207" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="2:14">
       <c r="B208">
         <v>301003</v>
       </c>
@@ -6050,10 +6625,10 @@
         <v>2</v>
       </c>
       <c r="N208" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
       <c r="B209">
         <v>301004</v>
       </c>
@@ -6070,7 +6645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:14">
       <c r="B210">
         <v>301005</v>
       </c>
@@ -6096,10 +6671,10 @@
         <v>2</v>
       </c>
       <c r="N210" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
       <c r="B211">
         <v>30102</v>
       </c>
@@ -6119,7 +6694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:14">
       <c r="B212">
         <v>30103</v>
       </c>
@@ -6142,7 +6717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:14">
       <c r="B213">
         <v>30104</v>
       </c>
@@ -6165,7 +6740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:14">
       <c r="B214">
         <v>30105</v>
       </c>
@@ -6182,19 +6757,19 @@
         <v>40</v>
       </c>
       <c r="H214" t="s">
+        <v>123</v>
+      </c>
+      <c r="I214">
+        <v>0.3</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214" t="s">
         <v>124</v>
       </c>
-      <c r="I214">
-        <v>0.3</v>
-      </c>
-      <c r="M214">
-        <v>2</v>
-      </c>
-      <c r="N214" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="2:14">
       <c r="B215">
         <v>30106</v>
       </c>
@@ -6211,19 +6786,19 @@
         <v>48</v>
       </c>
       <c r="H215" t="s">
+        <v>125</v>
+      </c>
+      <c r="I215">
+        <v>0.3</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215" t="s">
         <v>126</v>
       </c>
-      <c r="I215">
-        <v>0.3</v>
-      </c>
-      <c r="M215">
-        <v>2</v>
-      </c>
-      <c r="N215" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="2:14">
       <c r="B216">
         <v>30107</v>
       </c>
@@ -6240,10 +6815,10 @@
         <v>15</v>
       </c>
       <c r="N216" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11">
       <c r="B217">
         <v>30108</v>
       </c>
@@ -6257,7 +6832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:14">
       <c r="B218">
         <v>30200</v>
       </c>
@@ -6271,10 +6846,10 @@
         <v>14</v>
       </c>
       <c r="N218" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14">
       <c r="B219">
         <v>30201</v>
       </c>
@@ -6297,7 +6872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:9">
       <c r="B220">
         <v>30202</v>
       </c>
@@ -6317,7 +6892,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:14">
       <c r="B221">
         <v>30203</v>
       </c>
@@ -6337,10 +6912,10 @@
         <v>2</v>
       </c>
       <c r="N221" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14">
       <c r="B222">
         <v>30204</v>
       </c>
@@ -6363,10 +6938,10 @@
         <v>2</v>
       </c>
       <c r="N222" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14">
       <c r="B223">
         <v>30300</v>
       </c>
@@ -6383,10 +6958,10 @@
         <v>14</v>
       </c>
       <c r="N223" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14">
       <c r="B224">
         <v>30301</v>
       </c>
@@ -6409,7 +6984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:9">
       <c r="B225">
         <v>30302</v>
       </c>
@@ -6423,7 +6998,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:14">
       <c r="B226">
         <v>30303</v>
       </c>
@@ -6449,7 +7024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:14">
       <c r="B227">
         <v>30400</v>
       </c>
@@ -6460,10 +7035,10 @@
         <v>14</v>
       </c>
       <c r="N227" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14">
       <c r="B228">
         <v>30401</v>
       </c>
@@ -6486,7 +7061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:9">
       <c r="B229">
         <v>30402</v>
       </c>
@@ -6503,7 +7078,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:14">
       <c r="B230">
         <v>304021</v>
       </c>
@@ -6520,10 +7095,10 @@
         <v>15</v>
       </c>
       <c r="N230" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11">
       <c r="B231">
         <v>304022</v>
       </c>
@@ -6540,7 +7115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:14">
       <c r="B232">
         <v>30403</v>
       </c>
@@ -6560,10 +7135,10 @@
         <v>2</v>
       </c>
       <c r="N232" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14">
       <c r="B233">
         <v>30404</v>
       </c>
@@ -6583,10 +7158,10 @@
         <v>2</v>
       </c>
       <c r="N233" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14">
       <c r="B234">
         <v>30405</v>
       </c>
@@ -6612,10 +7187,10 @@
         <v>2</v>
       </c>
       <c r="N234" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11">
       <c r="B235">
         <v>30406</v>
       </c>
@@ -6632,7 +7207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:9">
       <c r="B236">
         <v>30407</v>
       </c>
@@ -6649,7 +7224,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:14">
       <c r="B237">
         <v>30500</v>
       </c>
@@ -6663,10 +7238,10 @@
         <v>14</v>
       </c>
       <c r="N237" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14">
       <c r="B238">
         <v>30501</v>
       </c>
@@ -6686,7 +7261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:9">
       <c r="B239">
         <v>30502</v>
       </c>
@@ -6706,7 +7281,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:14">
       <c r="B240">
         <v>30503</v>
       </c>
@@ -6729,7 +7304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:14">
       <c r="B241">
         <v>30504</v>
       </c>
@@ -6752,7 +7327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:14">
       <c r="B242">
         <v>30505</v>
       </c>
@@ -6778,10 +7353,10 @@
         <v>2</v>
       </c>
       <c r="N242" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14">
       <c r="B243">
         <v>30506</v>
       </c>
@@ -6807,10 +7382,10 @@
         <v>2</v>
       </c>
       <c r="N243" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
       <c r="B244">
         <v>30507</v>
       </c>
@@ -6830,7 +7405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:14">
       <c r="B245">
         <v>30508</v>
       </c>
@@ -6859,7 +7434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:14">
       <c r="B246">
         <v>30509</v>
       </c>
@@ -6879,10 +7454,10 @@
         <v>2</v>
       </c>
       <c r="N246" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14">
       <c r="B247">
         <v>305091</v>
       </c>
@@ -6911,7 +7486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:14">
       <c r="B248">
         <v>30510</v>
       </c>
@@ -6931,7 +7506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:14">
       <c r="B249">
         <v>30600</v>
       </c>
@@ -6942,10 +7517,10 @@
         <v>14</v>
       </c>
       <c r="N249" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14">
       <c r="B250">
         <v>30601</v>
       </c>
@@ -6968,7 +7543,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:9">
       <c r="B251">
         <v>30602</v>
       </c>
@@ -6988,7 +7563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:14">
       <c r="B252">
         <v>30603</v>
       </c>
@@ -7017,7 +7592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:14">
       <c r="B253">
         <v>30604</v>
       </c>
@@ -7025,22 +7600,22 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
+        <v>142</v>
+      </c>
+      <c r="H253" t="s">
+        <v>36</v>
+      </c>
+      <c r="I253">
+        <v>0.3</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253" t="s">
         <v>143</v>
       </c>
-      <c r="H253" t="s">
-        <v>36</v>
-      </c>
-      <c r="I253">
-        <v>0.3</v>
-      </c>
-      <c r="M253">
-        <v>2</v>
-      </c>
-      <c r="N253" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="2:14">
       <c r="B254">
         <v>30605</v>
       </c>
@@ -7054,7 +7629,7 @@
         <v>17010056</v>
       </c>
       <c r="G254" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H254" t="s">
         <v>36</v>
@@ -7069,7 +7644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:11">
       <c r="B255">
         <v>30606</v>
       </c>
@@ -7086,7 +7661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:14">
       <c r="B256">
         <v>30607</v>
       </c>
@@ -7103,10 +7678,10 @@
         <v>14</v>
       </c>
       <c r="N256" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14">
       <c r="B257">
         <v>30608</v>
       </c>
@@ -7123,10 +7698,10 @@
         <v>15</v>
       </c>
       <c r="N257" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11">
       <c r="B258">
         <v>30609</v>
       </c>
@@ -7140,7 +7715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:14">
       <c r="B259">
         <v>30700</v>
       </c>
@@ -7151,10 +7726,10 @@
         <v>14</v>
       </c>
       <c r="N259" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14">
       <c r="B260">
         <v>30701</v>
       </c>
@@ -7177,7 +7752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:14">
       <c r="B261">
         <v>30702</v>
       </c>
@@ -7200,7 +7775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:14">
       <c r="B262">
         <v>30703</v>
       </c>
@@ -7223,7 +7798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:14">
       <c r="B263">
         <v>30704</v>
       </c>
@@ -7252,7 +7827,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:14">
       <c r="B264">
         <v>30705</v>
       </c>
@@ -7272,7 +7847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:14">
       <c r="B265">
         <v>30800</v>
       </c>
@@ -7283,10 +7858,10 @@
         <v>14</v>
       </c>
       <c r="N265" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
       <c r="B266">
         <v>30801</v>
       </c>
@@ -7306,7 +7881,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:14">
       <c r="B267">
         <v>30802</v>
       </c>
@@ -7329,7 +7904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:14">
       <c r="B268">
         <v>30803</v>
       </c>
@@ -7355,10 +7930,10 @@
         <v>2</v>
       </c>
       <c r="N268" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
       <c r="B269">
         <v>30804</v>
       </c>
@@ -7378,7 +7953,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:14">
       <c r="B270">
         <v>30805</v>
       </c>
@@ -7398,10 +7973,10 @@
         <v>2</v>
       </c>
       <c r="N270" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
       <c r="B271">
         <v>30806</v>
       </c>
@@ -7421,7 +7996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:14">
       <c r="B272">
         <v>30807</v>
       </c>
@@ -7447,10 +8022,10 @@
         <v>2</v>
       </c>
       <c r="N272" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14">
       <c r="B273">
         <v>30808</v>
       </c>
@@ -7476,10 +8051,10 @@
         <v>2</v>
       </c>
       <c r="N273" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9">
       <c r="B274">
         <v>30809</v>
       </c>
@@ -7496,7 +8071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:14">
       <c r="B275">
         <v>30900</v>
       </c>
@@ -7507,10 +8082,10 @@
         <v>14</v>
       </c>
       <c r="N275" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14">
       <c r="B276">
         <v>30901</v>
       </c>
@@ -7533,7 +8108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:9">
       <c r="B277">
         <v>30902</v>
       </c>
@@ -7553,7 +8128,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:14">
       <c r="B278">
         <v>309021</v>
       </c>
@@ -7570,10 +8145,10 @@
         <v>15</v>
       </c>
       <c r="N278" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11">
       <c r="B279">
         <v>309022</v>
       </c>
@@ -7590,7 +8165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:14">
       <c r="B280">
         <v>30903</v>
       </c>
@@ -7601,19 +8176,19 @@
         <v>2</v>
       </c>
       <c r="H280" t="s">
+        <v>155</v>
+      </c>
+      <c r="I280">
+        <v>0.3</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280" t="s">
         <v>156</v>
       </c>
-      <c r="I280">
-        <v>0.3</v>
-      </c>
-      <c r="M280">
-        <v>2</v>
-      </c>
-      <c r="N280" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="2:14">
       <c r="B281">
         <v>30904</v>
       </c>
@@ -7636,10 +8211,10 @@
         <v>2</v>
       </c>
       <c r="N281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14">
       <c r="B282">
         <v>40100</v>
       </c>
@@ -7653,10 +8228,10 @@
         <v>14</v>
       </c>
       <c r="N282" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14">
       <c r="B283">
         <v>40101</v>
       </c>
@@ -7679,7 +8254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:9">
       <c r="B284">
         <v>40102</v>
       </c>
@@ -7699,7 +8274,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:14">
       <c r="B285">
         <v>40103</v>
       </c>
@@ -7722,7 +8297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:14">
       <c r="B286">
         <v>40104</v>
       </c>
@@ -7742,10 +8317,10 @@
         <v>2</v>
       </c>
       <c r="N286" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11">
       <c r="B287">
         <v>40105</v>
       </c>
@@ -7762,7 +8337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:14">
       <c r="B288">
         <v>40106</v>
       </c>
@@ -7782,10 +8357,10 @@
         <v>2</v>
       </c>
       <c r="N288" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14">
       <c r="B289">
         <v>40107</v>
       </c>
@@ -7805,7 +8380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:14">
       <c r="B290">
         <v>40200</v>
       </c>
@@ -7816,10 +8391,10 @@
         <v>14</v>
       </c>
       <c r="N290" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="291" spans="2:14">
       <c r="B291">
         <v>40201</v>
       </c>
@@ -7842,7 +8417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:9">
       <c r="B292">
         <v>40202</v>
       </c>
@@ -7862,7 +8437,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:14">
       <c r="B293">
         <v>40203</v>
       </c>
@@ -7879,7 +8454,7 @@
         <v>59</v>
       </c>
       <c r="H293" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I293">
         <v>0.3</v>
@@ -7891,7 +8466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:14">
       <c r="B294">
         <v>40204</v>
       </c>
@@ -7911,10 +8486,10 @@
         <v>2</v>
       </c>
       <c r="N294" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="295" spans="2:14">
       <c r="B295">
         <v>40205</v>
       </c>
@@ -7937,10 +8512,10 @@
         <v>2</v>
       </c>
       <c r="N295" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="2:14">
       <c r="B296">
         <v>40300</v>
       </c>
@@ -7954,10 +8529,10 @@
         <v>14</v>
       </c>
       <c r="N296" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="297" spans="2:14">
       <c r="B297">
         <v>40301</v>
       </c>
@@ -7980,7 +8555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:9">
       <c r="B298">
         <v>40302</v>
       </c>
@@ -8000,7 +8575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:14">
       <c r="B299">
         <v>40303</v>
       </c>
@@ -8023,7 +8598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:14">
       <c r="B300">
         <v>40304</v>
       </c>
@@ -8046,10 +8621,10 @@
         <v>2</v>
       </c>
       <c r="N300" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="301" spans="2:14">
       <c r="B301">
         <v>40400</v>
       </c>
@@ -8060,10 +8635,10 @@
         <v>14</v>
       </c>
       <c r="N301" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="302" spans="2:14">
       <c r="B302">
         <v>40401</v>
       </c>
@@ -8086,7 +8661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:9">
       <c r="B303">
         <v>40402</v>
       </c>
@@ -8106,7 +8681,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:14">
       <c r="B304">
         <v>40403</v>
       </c>
@@ -8126,10 +8701,10 @@
         <v>2</v>
       </c>
       <c r="N304" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7">
       <c r="B305">
         <v>40404</v>
       </c>
@@ -8143,7 +8718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:14">
       <c r="B306">
         <v>40500</v>
       </c>
@@ -8154,10 +8729,10 @@
         <v>14</v>
       </c>
       <c r="N306" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="307" spans="2:14">
       <c r="B307">
         <v>40501</v>
       </c>
@@ -8180,7 +8755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:14">
       <c r="B308">
         <v>40502</v>
       </c>
@@ -8197,10 +8772,10 @@
         <v>15</v>
       </c>
       <c r="N308" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="309" spans="2:11">
       <c r="B309">
         <v>405021</v>
       </c>
@@ -8217,7 +8792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:14">
       <c r="B310">
         <v>40503</v>
       </c>
@@ -8228,7 +8803,7 @@
         <v>2</v>
       </c>
       <c r="H310" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I310">
         <v>1</v>
@@ -8237,10 +8812,10 @@
         <v>2</v>
       </c>
       <c r="N310" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7">
       <c r="B311">
         <v>40504</v>
       </c>
@@ -8254,7 +8829,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:14">
       <c r="B312">
         <v>40600</v>
       </c>
@@ -8265,10 +8840,10 @@
         <v>14</v>
       </c>
       <c r="N312" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="313" spans="2:14">
       <c r="B313">
         <v>40601</v>
       </c>
@@ -8291,7 +8866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:9">
       <c r="B314">
         <v>40602</v>
       </c>
@@ -8311,7 +8886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:14">
       <c r="B315">
         <v>40603</v>
       </c>
@@ -8331,10 +8906,10 @@
         <v>2</v>
       </c>
       <c r="N315" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7">
       <c r="B316">
         <v>40604</v>
       </c>
@@ -8348,7 +8923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:14">
       <c r="B317">
         <v>40700</v>
       </c>
@@ -8359,10 +8934,10 @@
         <v>14</v>
       </c>
       <c r="N317" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="318" spans="2:14">
       <c r="B318">
         <v>40701</v>
       </c>
@@ -8385,7 +8960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:9">
       <c r="B319">
         <v>40702</v>
       </c>
@@ -8405,7 +8980,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:14">
       <c r="B320">
         <v>40703</v>
       </c>
@@ -8425,10 +9000,10 @@
         <v>2</v>
       </c>
       <c r="N320" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9">
       <c r="B321">
         <v>40704</v>
       </c>
@@ -8445,7 +9020,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:14">
       <c r="B322">
         <v>40800</v>
       </c>
@@ -8459,10 +9034,10 @@
         <v>14</v>
       </c>
       <c r="N322" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="323" spans="2:14">
       <c r="B323">
         <v>40801</v>
       </c>
@@ -8488,10 +9063,10 @@
         <v>2</v>
       </c>
       <c r="N323" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="324" spans="2:14">
       <c r="B324">
         <v>40802</v>
       </c>
@@ -8517,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="N324" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="325" spans="2:14">
       <c r="B325">
         <v>40803</v>
       </c>
@@ -8537,10 +9112,10 @@
         <v>2</v>
       </c>
       <c r="N325" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="326" spans="2:14">
       <c r="B326">
         <v>40900</v>
       </c>
@@ -8554,10 +9129,10 @@
         <v>14</v>
       </c>
       <c r="N326" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="327" spans="2:14">
       <c r="B327">
         <v>40901</v>
       </c>
@@ -8580,7 +9155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:9">
       <c r="B328">
         <v>40902</v>
       </c>
@@ -8600,7 +9175,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:14">
       <c r="B329">
         <v>40903</v>
       </c>
@@ -8611,19 +9186,19 @@
         <v>2</v>
       </c>
       <c r="H329" t="s">
+        <v>36</v>
+      </c>
+      <c r="I329">
+        <v>0.3</v>
+      </c>
+      <c r="M329">
+        <v>2</v>
+      </c>
+      <c r="N329" t="s">
         <v>120</v>
       </c>
-      <c r="I329">
-        <v>0.3</v>
-      </c>
-      <c r="M329">
-        <v>2</v>
-      </c>
-      <c r="N329" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="2:14">
       <c r="B330">
         <v>40904</v>
       </c>
@@ -8640,10 +9215,10 @@
         <v>2</v>
       </c>
       <c r="N330" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="331" spans="2:14">
       <c r="B331">
         <v>41000</v>
       </c>
@@ -8657,10 +9232,10 @@
         <v>14</v>
       </c>
       <c r="N331" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="332" spans="2:14">
       <c r="B332">
         <v>41001</v>
       </c>
@@ -8689,7 +9264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:9">
       <c r="B333">
         <v>41002</v>
       </c>
@@ -8709,7 +9284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:14">
       <c r="B334">
         <v>41003</v>
       </c>
@@ -8717,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="H334" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="I334">
         <v>0.3</v>
@@ -8729,7 +9304,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:14">
       <c r="B335">
         <v>41100</v>
       </c>
@@ -8746,7 +9321,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:14">
       <c r="B336">
         <v>41101</v>
       </c>
@@ -8775,7 +9350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:14">
       <c r="B337">
         <v>41102</v>
       </c>
@@ -8792,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="H337" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I337">
         <v>0.3</v>
@@ -8804,7 +9379,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:14">
       <c r="B338">
         <v>41103</v>
       </c>
@@ -8827,7 +9402,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:14">
       <c r="B339">
         <v>41104</v>
       </c>
@@ -8847,7 +9422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:14">
       <c r="B340">
         <v>41200</v>
       </c>
@@ -8864,7 +9439,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:14">
       <c r="B341">
         <v>41201</v>
       </c>
@@ -8884,7 +9459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:11">
       <c r="B342">
         <v>412011</v>
       </c>
@@ -8901,7 +9476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:14">
       <c r="B343">
         <v>412012</v>
       </c>
@@ -8924,7 +9499,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:14">
       <c r="B344">
         <v>41202</v>
       </c>
@@ -8944,7 +9519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:11">
       <c r="B345">
         <v>412021</v>
       </c>
@@ -8961,7 +9536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:14">
       <c r="B346">
         <v>412022</v>
       </c>
@@ -8984,7 +9559,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:9">
       <c r="B347">
         <v>41203</v>
       </c>
@@ -9004,7 +9579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:14">
       <c r="B348">
         <v>41204</v>
       </c>
@@ -9027,7 +9602,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:9">
       <c r="B349">
         <v>41205</v>
       </c>
@@ -9047,7 +9622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:14">
       <c r="B350">
         <v>41206</v>
       </c>
@@ -9070,7 +9645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:14">
       <c r="B351">
         <v>41207</v>
       </c>
@@ -9099,7 +9674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:9">
       <c r="B352">
         <v>41208</v>
       </c>
@@ -9119,7 +9694,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:14">
       <c r="B353">
         <v>41209</v>
       </c>
@@ -9148,7 +9723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:9">
       <c r="B354">
         <v>41210</v>
       </c>
@@ -9165,7 +9740,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:14">
       <c r="B355">
         <v>41300</v>
       </c>
@@ -9182,7 +9757,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:9">
       <c r="B356">
         <v>41301</v>
       </c>
@@ -9202,7 +9777,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:14">
       <c r="B357">
         <v>41302</v>
       </c>
@@ -9225,7 +9800,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:9">
       <c r="B358">
         <v>41303</v>
       </c>
@@ -9245,7 +9820,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:14">
       <c r="B359">
         <v>41304</v>
       </c>
@@ -9268,7 +9843,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:14">
       <c r="B360">
         <v>41305</v>
       </c>
@@ -9297,7 +9872,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:9">
       <c r="B361">
         <v>41306</v>
       </c>
@@ -9317,7 +9892,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:14">
       <c r="B362">
         <v>41307</v>
       </c>
@@ -9343,7 +9918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:14">
       <c r="B363">
         <v>41400</v>
       </c>
@@ -9360,7 +9935,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:14">
       <c r="B364">
         <v>41401</v>
       </c>
@@ -9389,7 +9964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:9">
       <c r="B365">
         <v>41402</v>
       </c>
@@ -9409,7 +9984,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:14">
       <c r="B366">
         <v>41403</v>
       </c>
@@ -9432,7 +10007,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:14">
       <c r="B367">
         <v>41404</v>
       </c>
@@ -9455,7 +10030,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:9">
       <c r="B368">
         <v>41405</v>
       </c>
@@ -9472,7 +10047,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:14">
       <c r="B369">
         <v>41500</v>
       </c>
@@ -9489,7 +10064,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:14">
       <c r="B370">
         <v>41501</v>
       </c>
@@ -9509,7 +10084,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:11">
       <c r="B371">
         <v>415011</v>
       </c>
@@ -9526,7 +10101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:14">
       <c r="B372">
         <v>415012</v>
       </c>
@@ -9555,7 +10130,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:14">
       <c r="B373">
         <v>41502</v>
       </c>
@@ -9575,7 +10150,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:11">
       <c r="B374">
         <v>415021</v>
       </c>
@@ -9592,7 +10167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:14">
       <c r="B375">
         <v>415022</v>
       </c>
@@ -9621,7 +10196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:9">
       <c r="B376">
         <v>41503</v>
       </c>
@@ -9641,7 +10216,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:14">
       <c r="B377">
         <v>41504</v>
       </c>
@@ -9664,7 +10239,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:14">
       <c r="B378">
         <v>41505</v>
       </c>
@@ -9693,7 +10268,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:9">
       <c r="B379">
         <v>41506</v>
       </c>
@@ -9713,7 +10288,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:14">
       <c r="B380">
         <v>41507</v>
       </c>
@@ -9736,7 +10311,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:14">
       <c r="B381">
         <v>41508</v>
       </c>
@@ -9765,7 +10340,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:9">
       <c r="B382">
         <v>41509</v>
       </c>
@@ -9782,7 +10357,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:14">
       <c r="B383">
         <v>41600</v>
       </c>
@@ -9799,7 +10374,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:14">
       <c r="B384">
         <v>41601</v>
       </c>
@@ -9828,7 +10403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:9">
       <c r="B385">
         <v>41602</v>
       </c>
@@ -9848,7 +10423,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:14">
       <c r="B386">
         <v>41603</v>
       </c>
@@ -9871,7 +10446,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:9">
       <c r="B387">
         <v>41604</v>
       </c>
@@ -9891,7 +10466,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:14">
       <c r="B388">
         <v>41605</v>
       </c>
@@ -9920,7 +10495,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:14">
       <c r="B389">
         <v>41606</v>
       </c>
@@ -9943,7 +10518,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:9">
       <c r="B390">
         <v>41607</v>
       </c>
@@ -9960,7 +10535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="391" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:14">
       <c r="B391">
         <v>41700</v>
       </c>
@@ -9977,7 +10552,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="392" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:14">
       <c r="B392">
         <v>41701</v>
       </c>
@@ -9997,7 +10572,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="393" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:11">
       <c r="B393">
         <v>417011</v>
       </c>
@@ -10014,7 +10589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:14">
       <c r="B394">
         <v>417012</v>
       </c>
@@ -10043,7 +10618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:14">
       <c r="B395">
         <v>41702</v>
       </c>
@@ -10063,7 +10638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="396" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:11">
       <c r="B396">
         <v>417021</v>
       </c>
@@ -10080,7 +10655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:14">
       <c r="B397">
         <v>417022</v>
       </c>
@@ -10109,7 +10684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="398" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:14">
       <c r="B398">
         <v>41703</v>
       </c>
@@ -10132,7 +10707,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="399" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:14">
       <c r="B399">
         <v>41704</v>
       </c>
@@ -10155,7 +10730,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="400" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:9">
       <c r="B400">
         <v>41705</v>
       </c>
@@ -10175,7 +10750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="401" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:14">
       <c r="B401">
         <v>41706</v>
       </c>
@@ -10204,7 +10779,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="402" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:9">
       <c r="B402">
         <v>41707</v>
       </c>
@@ -10221,7 +10796,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="403" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:14">
       <c r="B403">
         <v>41800</v>
       </c>
@@ -10238,7 +10813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="404" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:14">
       <c r="B404">
         <v>41801</v>
       </c>
@@ -10267,7 +10842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="405" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:9">
       <c r="B405">
         <v>41802</v>
       </c>
@@ -10287,7 +10862,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="406" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:14">
       <c r="B406">
         <v>41803</v>
       </c>
@@ -10307,7 +10882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="407" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:14">
       <c r="B407">
         <v>41900</v>
       </c>
@@ -10324,7 +10899,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="408" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:14">
       <c r="B408">
         <v>41901</v>
       </c>
@@ -10353,7 +10928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="409" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:9">
       <c r="B409">
         <v>41902</v>
       </c>
@@ -10373,7 +10948,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="410" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:14">
       <c r="B410">
         <v>41903</v>
       </c>
@@ -10396,7 +10971,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="411" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:14">
       <c r="B411">
         <v>41904</v>
       </c>
@@ -10419,7 +10994,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="412" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:14">
       <c r="B412">
         <v>41905</v>
       </c>
@@ -10448,7 +11023,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="413" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:14">
       <c r="B413">
         <v>41906</v>
       </c>
@@ -10477,7 +11052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="414" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:9">
       <c r="B414">
         <v>41907</v>
       </c>
@@ -10494,7 +11069,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="415" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:14">
       <c r="B415">
         <v>42000</v>
       </c>
@@ -10511,7 +11086,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="416" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:14">
       <c r="B416">
         <v>420011</v>
       </c>
@@ -10531,7 +11106,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="417" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:11">
       <c r="B417">
         <v>420012</v>
       </c>
@@ -10548,7 +11123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:14">
       <c r="B418">
         <v>420021</v>
       </c>
@@ -10568,7 +11143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="419" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:11">
       <c r="B419">
         <v>420022</v>
       </c>
@@ -10585,7 +11160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:14">
       <c r="B420">
         <v>42001</v>
       </c>
@@ -10608,7 +11183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="421" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:14">
       <c r="B421">
         <v>42002</v>
       </c>
@@ -10619,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="H421" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="I421">
         <v>0.3</v>
@@ -10631,7 +11206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="422" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:9">
       <c r="B422">
         <v>42003</v>
       </c>
@@ -10651,7 +11226,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="423" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:9">
       <c r="B423">
         <v>42004</v>
       </c>
@@ -10668,7 +11243,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="424" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:14">
       <c r="B424">
         <v>42100</v>
       </c>
@@ -10685,7 +11260,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="425" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:14">
       <c r="B425">
         <v>42101</v>
       </c>
@@ -10714,7 +11289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="426" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:9">
       <c r="B426">
         <v>42102</v>
       </c>
@@ -10734,7 +11309,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="427" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:14">
       <c r="B427">
         <v>42103</v>
       </c>
@@ -10757,7 +11332,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="428" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:9">
       <c r="B428">
         <v>42104</v>
       </c>
@@ -10774,7 +11349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="429" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:14">
       <c r="B429">
         <v>42200</v>
       </c>
@@ -10791,7 +11366,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="430" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:14">
       <c r="B430">
         <v>42201</v>
       </c>
@@ -10820,7 +11395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="431" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:9">
       <c r="B431">
         <v>42202</v>
       </c>
@@ -10840,7 +11415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="432" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:14">
       <c r="B432">
         <v>42203</v>
       </c>
@@ -10863,7 +11438,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="433" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:9">
       <c r="B433">
         <v>42204</v>
       </c>
@@ -10880,7 +11455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="434" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:14">
       <c r="B434">
         <v>42300</v>
       </c>
@@ -10897,7 +11472,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="435" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:14">
       <c r="B435">
         <v>42301</v>
       </c>
@@ -10926,7 +11501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="436" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:9">
       <c r="B436">
         <v>42302</v>
       </c>
@@ -10946,7 +11521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="437" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:14">
       <c r="B437">
         <v>42303</v>
       </c>
@@ -10957,7 +11532,7 @@
         <v>2</v>
       </c>
       <c r="H437" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I437">
         <v>0.3</v>
@@ -10969,7 +11544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="438" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:9">
       <c r="B438">
         <v>42304</v>
       </c>
@@ -10989,7 +11564,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="439" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:14">
       <c r="B439">
         <v>42305</v>
       </c>
@@ -11012,7 +11587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="440" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:14">
       <c r="B440">
         <v>42400</v>
       </c>
@@ -11029,7 +11604,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="441" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:14">
       <c r="B441">
         <v>42401</v>
       </c>
@@ -11058,7 +11633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:9">
       <c r="B442">
         <v>42402</v>
       </c>
@@ -11078,7 +11653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="443" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:14">
       <c r="B443">
         <v>42403</v>
       </c>
@@ -11101,7 +11676,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="444" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:9">
       <c r="B444">
         <v>42404</v>
       </c>
@@ -11118,7 +11693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="445" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:14">
       <c r="B445">
         <v>42500</v>
       </c>
@@ -11135,7 +11710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="446" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:14">
       <c r="B446">
         <v>42501</v>
       </c>
@@ -11164,7 +11739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="447" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:9">
       <c r="B447">
         <v>42502</v>
       </c>
@@ -11184,7 +11759,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="448" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:14">
       <c r="B448">
         <v>42503</v>
       </c>
@@ -11207,7 +11782,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="449" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:9">
       <c r="B449">
         <v>42504</v>
       </c>
@@ -11227,7 +11802,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="450" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:14">
       <c r="B450">
         <v>42505</v>
       </c>
@@ -11256,7 +11831,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="451" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:9">
       <c r="B451">
         <v>42506</v>
       </c>
@@ -11273,7 +11848,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="452" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:14">
       <c r="B452">
         <v>42600</v>
       </c>
@@ -11290,7 +11865,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="453" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:14">
       <c r="B453">
         <v>42601</v>
       </c>
@@ -11319,7 +11894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="454" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:9">
       <c r="B454">
         <v>42602</v>
       </c>
@@ -11339,7 +11914,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="455" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:14">
       <c r="B455">
         <v>42603</v>
       </c>
@@ -11362,7 +11937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="456" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:9">
       <c r="B456">
         <v>42604</v>
       </c>
@@ -11379,7 +11954,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="457" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:14">
       <c r="B457">
         <v>42700</v>
       </c>
@@ -11396,7 +11971,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="458" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:14">
       <c r="B458">
         <v>42701</v>
       </c>
@@ -11425,7 +12000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="459" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:9">
       <c r="B459">
         <v>42702</v>
       </c>
@@ -11445,7 +12020,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="460" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:14">
       <c r="B460">
         <v>42703</v>
       </c>
@@ -11465,10 +12040,10 @@
         <v>2</v>
       </c>
       <c r="N460" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="461" spans="2:14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="461" spans="2:14">
       <c r="B461">
         <v>42704</v>
       </c>
@@ -11491,7 +12066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="462" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:9">
       <c r="B462">
         <v>42705</v>
       </c>
@@ -11508,7 +12083,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="463" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:14">
       <c r="B463">
         <v>42800</v>
       </c>
@@ -11525,7 +12100,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="464" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:14">
       <c r="B464">
         <v>42801</v>
       </c>
@@ -11554,7 +12129,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="465" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:9">
       <c r="B465">
         <v>42802</v>
       </c>
@@ -11574,7 +12149,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="466" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:14">
       <c r="B466">
         <v>42803</v>
       </c>
@@ -11594,10 +12169,10 @@
         <v>2</v>
       </c>
       <c r="N466" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="467" spans="2:14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="467" spans="2:14">
       <c r="B467">
         <v>42804</v>
       </c>
@@ -11620,7 +12195,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="468" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:9">
       <c r="B468">
         <v>42805</v>
       </c>
@@ -11637,7 +12212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="469" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:14">
       <c r="B469">
         <v>42900</v>
       </c>
@@ -11654,7 +12229,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="470" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:14">
       <c r="B470">
         <v>42901</v>
       </c>
@@ -11674,7 +12249,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="471" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:11">
       <c r="B471">
         <v>429011</v>
       </c>
@@ -11691,7 +12266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:14">
       <c r="B472">
         <v>429012</v>
       </c>
@@ -11720,7 +12295,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="473" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:14">
       <c r="B473">
         <v>42902</v>
       </c>
@@ -11740,7 +12315,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="474" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:11">
       <c r="B474">
         <v>429021</v>
       </c>
@@ -11757,7 +12332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:14">
       <c r="B475">
         <v>429022</v>
       </c>
@@ -11786,7 +12361,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="476" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:5">
       <c r="B476">
         <v>42903</v>
       </c>
@@ -11797,7 +12372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:14">
       <c r="B477">
         <v>42904</v>
       </c>
@@ -11820,7 +12395,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="478" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:9">
       <c r="B478">
         <v>42905</v>
       </c>
@@ -11840,7 +12415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="479" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:9">
       <c r="B479">
         <v>42906</v>
       </c>
@@ -11857,7 +12432,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="480" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:14">
       <c r="B480">
         <v>43000</v>
       </c>
@@ -11874,7 +12449,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="481" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:14">
       <c r="B481">
         <v>43001</v>
       </c>
@@ -11903,7 +12478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="482" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:9">
       <c r="B482">
         <v>43002</v>
       </c>
@@ -11923,7 +12498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="483" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:14">
       <c r="B483">
         <v>43003</v>
       </c>
@@ -11934,7 +12509,7 @@
         <v>2</v>
       </c>
       <c r="H483" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="I483">
         <v>0.3</v>
@@ -11946,7 +12521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="484" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:9">
       <c r="B484">
         <v>43004</v>
       </c>
@@ -11963,7 +12538,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="485" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:14">
       <c r="B485">
         <v>43100</v>
       </c>
@@ -11980,7 +12555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="486" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:14">
       <c r="B486">
         <v>43101</v>
       </c>
@@ -12009,7 +12584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="487" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:9">
       <c r="B487">
         <v>43102</v>
       </c>
@@ -12029,7 +12604,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="488" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:14">
       <c r="B488">
         <v>43103</v>
       </c>
@@ -12040,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="H488" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I488">
         <v>0.3</v>
@@ -12052,7 +12627,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="489" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:9">
       <c r="B489">
         <v>43104</v>
       </c>
@@ -12072,7 +12647,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="490" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:14">
       <c r="B490">
         <v>43105</v>
       </c>
@@ -12101,7 +12676,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="491" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:9">
       <c r="B491">
         <v>43106</v>
       </c>
@@ -12118,7 +12693,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="492" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:14">
       <c r="B492">
         <v>43200</v>
       </c>
@@ -12135,7 +12710,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="493" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:14">
       <c r="B493">
         <v>43201</v>
       </c>
@@ -12164,7 +12739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="494" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:9">
       <c r="B494">
         <v>43202</v>
       </c>
@@ -12184,7 +12759,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="495" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:14">
       <c r="B495">
         <v>43203</v>
       </c>
@@ -12195,7 +12770,7 @@
         <v>2</v>
       </c>
       <c r="H495" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I495">
         <v>0.3</v>
@@ -12207,7 +12782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="496" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:9">
       <c r="B496">
         <v>43204</v>
       </c>
@@ -12224,7 +12799,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="497" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:14">
       <c r="B497">
         <v>44000</v>
       </c>
@@ -12241,7 +12816,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="498" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:14">
       <c r="B498">
         <v>44001</v>
       </c>
@@ -12261,7 +12836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="499" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:11">
       <c r="B499">
         <v>440011</v>
       </c>
@@ -12278,7 +12853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:14">
       <c r="B500">
         <v>440012</v>
       </c>
@@ -12301,7 +12876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="501" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:14">
       <c r="B501">
         <v>44002</v>
       </c>
@@ -12321,7 +12896,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="502" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:11">
       <c r="B502">
         <v>440021</v>
       </c>
@@ -12338,7 +12913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:9">
       <c r="B503">
         <v>44003</v>
       </c>
@@ -12358,7 +12933,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="504" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:14">
       <c r="B504">
         <v>44004</v>
       </c>
@@ -12381,7 +12956,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="505" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:9">
       <c r="B505">
         <v>44005</v>
       </c>
@@ -12401,7 +12976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="506" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:14">
       <c r="B506">
         <v>44006</v>
       </c>
@@ -12430,7 +13005,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="507" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:9">
       <c r="B507">
         <v>44007</v>
       </c>
@@ -12450,7 +13025,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="508" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:14">
       <c r="B508">
         <v>44008</v>
       </c>
@@ -12479,7 +13054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="509" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:9">
       <c r="B509">
         <v>44009</v>
       </c>
@@ -12499,7 +13074,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="510" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:14">
       <c r="B510">
         <v>44010</v>
       </c>
@@ -12528,7 +13103,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:9">
       <c r="B511">
         <v>44011</v>
       </c>
@@ -12548,7 +13123,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="512" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:14">
       <c r="B512">
         <v>44012</v>
       </c>
@@ -12568,7 +13143,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="513" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:11">
       <c r="B513">
         <v>44013</v>
       </c>
@@ -12585,7 +13160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:14">
       <c r="B514">
         <v>44014</v>
       </c>
@@ -12614,7 +13189,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="515" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:9">
       <c r="B515">
         <v>44015</v>
       </c>
@@ -12634,7 +13209,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="516" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:14">
       <c r="B516">
         <v>44016</v>
       </c>
@@ -12654,7 +13229,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="517" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:11">
       <c r="B517">
         <v>44017</v>
       </c>
@@ -12668,7 +13243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:14">
       <c r="B518">
         <v>44100</v>
       </c>
@@ -12685,7 +13260,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="519" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:14">
       <c r="B519">
         <v>44101</v>
       </c>
@@ -12705,7 +13280,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="520" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:11">
       <c r="B520">
         <v>441011</v>
       </c>
@@ -12722,7 +13297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:14">
       <c r="B521">
         <v>441012</v>
       </c>
@@ -12745,7 +13320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="522" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:14">
       <c r="B522">
         <v>44102</v>
       </c>
@@ -12765,7 +13340,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="523" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:11">
       <c r="B523">
         <v>441021</v>
       </c>
@@ -12782,7 +13357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:14">
       <c r="B524">
         <v>44103</v>
       </c>
@@ -12811,7 +13386,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="525" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:14">
       <c r="B525">
         <v>44104</v>
       </c>
@@ -12840,7 +13415,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="526" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:14">
       <c r="B526">
         <v>44105</v>
       </c>
@@ -12869,7 +13444,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="527" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:14">
       <c r="B527">
         <v>44106</v>
       </c>
@@ -12898,7 +13473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="528" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:9">
       <c r="B528">
         <v>44107</v>
       </c>
@@ -12918,7 +13493,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="529" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:14">
       <c r="B529">
         <v>44108</v>
       </c>
@@ -12941,7 +13516,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="530" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:9">
       <c r="B530">
         <v>44109</v>
       </c>
@@ -12958,7 +13533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="531" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:14">
       <c r="B531">
         <v>44200</v>
       </c>
@@ -12975,7 +13550,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="532" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:14">
       <c r="B532">
         <v>44201</v>
       </c>
@@ -13004,7 +13579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="533" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:9">
       <c r="B533">
         <v>44202</v>
       </c>
@@ -13024,7 +13599,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="534" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:14">
       <c r="B534">
         <v>44203</v>
       </c>
@@ -13047,7 +13622,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="535" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:14">
       <c r="B535">
         <v>44204</v>
       </c>
@@ -13067,7 +13642,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="536" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:11">
       <c r="B536">
         <v>44205</v>
       </c>
@@ -13081,7 +13656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:14">
       <c r="B537">
         <v>44300</v>
       </c>
@@ -13098,7 +13673,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="538" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:14">
       <c r="B538">
         <v>44301</v>
       </c>
@@ -13118,7 +13693,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="539" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:11">
       <c r="B539">
         <v>443011</v>
       </c>
@@ -13135,7 +13710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:14">
       <c r="B540">
         <v>443012</v>
       </c>
@@ -13158,7 +13733,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="541" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:14">
       <c r="B541">
         <v>44302</v>
       </c>
@@ -13178,7 +13753,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="542" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:11">
       <c r="B542">
         <v>443021</v>
       </c>
@@ -13195,7 +13770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:14">
       <c r="B543">
         <v>443022</v>
       </c>
@@ -13218,7 +13793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="544" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:14">
       <c r="B544">
         <v>44303</v>
       </c>
@@ -13241,7 +13816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="545" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:14">
       <c r="B545">
         <v>44304</v>
       </c>
@@ -13261,7 +13836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="546" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:11">
       <c r="B546">
         <v>44305</v>
       </c>
@@ -13275,7 +13850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:14">
       <c r="B547">
         <v>44400</v>
       </c>
@@ -13292,7 +13867,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="548" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:9">
       <c r="B548">
         <v>44401</v>
       </c>
@@ -13312,7 +13887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="549" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:14">
       <c r="B549">
         <v>44402</v>
       </c>
@@ -13341,7 +13916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="550" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:14">
       <c r="B550">
         <v>44403</v>
       </c>
@@ -13364,7 +13939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="551" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:14">
       <c r="B551">
         <v>44404</v>
       </c>
@@ -13384,7 +13959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="552" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:11">
       <c r="B552">
         <v>444041</v>
       </c>
@@ -13398,7 +13973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:14">
       <c r="B553">
         <v>44500</v>
       </c>
@@ -13415,7 +13990,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="554" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:14">
       <c r="B554">
         <v>44501</v>
       </c>
@@ -13444,7 +14019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="555" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:14">
       <c r="B555">
         <v>44502</v>
       </c>
@@ -13473,7 +14048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="556" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:14">
       <c r="B556">
         <v>44503</v>
       </c>
@@ -13496,7 +14071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="557" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:14">
       <c r="B557">
         <v>44504</v>
       </c>
@@ -13519,7 +14094,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="558" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:14">
       <c r="B558">
         <v>44505</v>
       </c>
@@ -13539,7 +14114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="559" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:11">
       <c r="B559">
         <v>44506</v>
       </c>
@@ -13553,7 +14128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:14">
       <c r="B560">
         <v>44600</v>
       </c>
@@ -13570,7 +14145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="561" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:14">
       <c r="B561">
         <v>44601</v>
       </c>
@@ -13590,7 +14165,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="562" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:11">
       <c r="B562">
         <v>446011</v>
       </c>
@@ -13607,7 +14182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:14">
       <c r="B563">
         <v>446012</v>
       </c>
@@ -13630,7 +14205,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="564" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:14">
       <c r="B564">
         <v>44602</v>
       </c>
@@ -13650,7 +14225,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="565" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:11">
       <c r="B565">
         <v>446021</v>
       </c>
@@ -13667,7 +14242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:14">
       <c r="B566">
         <v>446022</v>
       </c>
@@ -13687,10 +14262,10 @@
         <v>2</v>
       </c>
       <c r="N566" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="567" spans="2:14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="567" spans="2:14">
       <c r="B567">
         <v>44603</v>
       </c>
@@ -13713,7 +14288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="568" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:14">
       <c r="B568">
         <v>44604</v>
       </c>
@@ -13733,7 +14308,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="569" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:11">
       <c r="B569">
         <v>44605</v>
       </c>
@@ -13750,7 +14325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:14">
       <c r="B570">
         <v>44606</v>
       </c>
@@ -13773,7 +14348,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="571" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:14">
       <c r="B571">
         <v>44607</v>
       </c>
@@ -13802,7 +14377,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="572" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:7">
       <c r="B572">
         <v>44608</v>
       </c>
@@ -13819,7 +14394,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="573" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:14">
       <c r="B573">
         <v>44609</v>
       </c>
@@ -13848,7 +14423,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="574" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:14">
       <c r="B574">
         <v>44610</v>
       </c>
@@ -13871,7 +14446,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="575" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:14">
       <c r="B575">
         <v>44611</v>
       </c>
@@ -13894,7 +14469,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="576" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:14">
       <c r="B576">
         <v>44612</v>
       </c>
@@ -13917,7 +14492,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="577" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:14">
       <c r="B577">
         <v>44613</v>
       </c>
@@ -13940,7 +14515,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="578" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:14">
       <c r="B578">
         <v>44614</v>
       </c>
@@ -13963,7 +14538,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="579" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:14">
       <c r="B579">
         <v>44615</v>
       </c>
@@ -13992,7 +14567,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="580" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:7">
       <c r="B580">
         <v>44616</v>
       </c>
@@ -14009,7 +14584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="581" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:14">
       <c r="B581">
         <v>44617</v>
       </c>
@@ -14032,7 +14607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="582" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:14">
       <c r="B582">
         <v>44618</v>
       </c>
@@ -14061,7 +14636,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="583" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:14">
       <c r="B583">
         <v>44619</v>
       </c>
@@ -14090,7 +14665,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="584" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:14">
       <c r="B584">
         <v>44620</v>
       </c>
@@ -14113,7 +14688,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="585" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:14">
       <c r="B585">
         <v>44621</v>
       </c>
@@ -14142,7 +14717,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="586" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:14">
       <c r="B586">
         <v>44622</v>
       </c>
@@ -14171,7 +14746,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="587" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:14">
       <c r="B587">
         <v>44623</v>
       </c>
@@ -14194,7 +14769,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="588" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:14">
       <c r="B588">
         <v>44624</v>
       </c>
@@ -14217,7 +14792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="589" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:14">
       <c r="B589">
         <v>44625</v>
       </c>
@@ -14240,7 +14815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="590" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:14">
       <c r="B590">
         <v>44626</v>
       </c>
@@ -14260,7 +14835,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="591" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:11">
       <c r="B591">
         <v>44627</v>
       </c>
@@ -14274,7 +14849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:14">
       <c r="B592">
         <v>44700</v>
       </c>
@@ -14291,7 +14866,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="593" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:14">
       <c r="B593">
         <v>44701</v>
       </c>
@@ -14320,7 +14895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="594" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:9">
       <c r="B594">
         <v>44702</v>
       </c>
@@ -14340,7 +14915,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="595" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:14">
       <c r="B595">
         <v>44703</v>
       </c>
@@ -14351,7 +14926,7 @@
         <v>2</v>
       </c>
       <c r="H595" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I595">
         <v>0.3</v>
@@ -14363,7 +14938,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="596" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:14">
       <c r="B596">
         <v>44704</v>
       </c>
@@ -14383,7 +14958,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="597" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:7">
       <c r="B597">
         <v>44705</v>
       </c>
@@ -14397,7 +14972,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="598" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:14">
       <c r="B598">
         <v>44800</v>
       </c>
@@ -14414,7 +14989,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="599" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:14">
       <c r="B599">
         <v>44801</v>
       </c>
@@ -14443,7 +15018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="600" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:9">
       <c r="B600">
         <v>44802</v>
       </c>
@@ -14463,7 +15038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="601" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:14">
       <c r="B601">
         <v>44803</v>
       </c>
@@ -14474,7 +15049,7 @@
         <v>2</v>
       </c>
       <c r="H601" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I601">
         <v>0.3</v>
@@ -14486,7 +15061,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="602" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:14">
       <c r="B602">
         <v>44804</v>
       </c>
@@ -14506,7 +15081,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="603" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:7">
       <c r="B603">
         <v>44805</v>
       </c>
@@ -14520,7 +15095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="604" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:14">
       <c r="B604">
         <v>44900</v>
       </c>
@@ -14537,7 +15112,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="605" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:14">
       <c r="B605">
         <v>44901</v>
       </c>
@@ -14566,7 +15141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="606" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:9">
       <c r="B606">
         <v>44902</v>
       </c>
@@ -14586,7 +15161,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="607" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:14">
       <c r="B607">
         <v>44903</v>
       </c>
@@ -14597,7 +15172,7 @@
         <v>2</v>
       </c>
       <c r="H607" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I607">
         <v>0.3</v>
@@ -14609,7 +15184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="608" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:14">
       <c r="B608">
         <v>44904</v>
       </c>
@@ -14629,7 +15204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="609" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:7">
       <c r="B609">
         <v>44905</v>
       </c>
@@ -14643,7 +15218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="610" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:14">
       <c r="B610">
         <v>45000</v>
       </c>
@@ -14660,7 +15235,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="611" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:14">
       <c r="B611">
         <v>45001</v>
       </c>
@@ -14689,7 +15264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="612" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:9">
       <c r="B612">
         <v>45002</v>
       </c>
@@ -14709,7 +15284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="613" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:14">
       <c r="B613">
         <v>45003</v>
       </c>
@@ -14720,7 +15295,7 @@
         <v>2</v>
       </c>
       <c r="H613" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I613">
         <v>0.3</v>
@@ -14732,7 +15307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="614" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:14">
       <c r="B614">
         <v>45004</v>
       </c>
@@ -14752,7 +15327,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="615" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:7">
       <c r="B615">
         <v>45005</v>
       </c>
@@ -14767,7 +15342,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>